--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2383.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2383.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>0.9097349643707275</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.744603633880615</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.994563579559326</v>
       </c>
       <c r="D1">
-        <v>0.8879298708325596</v>
+        <v>3.652950525283813</v>
       </c>
       <c r="E1">
-        <v>0.6607900681276073</v>
+        <v>1.507826924324036</v>
       </c>
     </row>
   </sheetData>
